--- a/webdevelopment/assignment/3-css-assignment-1-Jun-2022.xlsx
+++ b/webdevelopment/assignment/3-css-assignment-1-Jun-2022.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\kaushalya.tech\consultancy\incarnus\2022\mean_training_May-2022\webdevelopment\assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05CA417-6E06-4119-88B0-0E6A717C638E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC625FB5-EBAB-46B4-87CD-48AC87628A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="assingment - 1" sheetId="1" r:id="rId1"/>
+    <sheet name="assingment - 2" sheetId="3" r:id="rId2"/>
+    <sheet name="assingment-3-menu" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="43">
   <si>
     <t>Welcome to Corona Vaccination Portal</t>
   </si>
@@ -90,9 +92,6 @@
     <t>Chennai</t>
   </si>
   <si>
-    <t>Guidy BSNL Office</t>
-  </si>
-  <si>
     <t>&lt;link to download certificate&gt;</t>
   </si>
   <si>
@@ -118,13 +117,52 @@
   </si>
   <si>
     <t>Style the table… Header in different color.. Alternative row colors</t>
+  </si>
+  <si>
+    <t>Guindy BSNL Office</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Sign Up</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
+  </si>
+  <si>
+    <t>Contact Us</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home </t>
+  </si>
+  <si>
+    <t>Write some information about cowin</t>
+  </si>
+  <si>
+    <t>Sign up</t>
+  </si>
+  <si>
+    <t>Dash Board</t>
+  </si>
+  <si>
+    <t>Existing information</t>
+  </si>
+  <si>
+    <t>Google map</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Building responsive webpage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,13 +194,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -177,12 +242,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -198,6 +267,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>63841</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>19259</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ED90AEB-3855-37E0-337F-73A1A8C4930E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4679950" y="3848100"/>
+          <a:ext cx="6642441" cy="4070559"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -465,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -478,7 +596,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:10" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -501,10 +619,10 @@
         <v>18</v>
       </c>
       <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" t="s">
         <v>28</v>
-      </c>
-      <c r="J4" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="5" spans="4:10" x14ac:dyDescent="0.35">
@@ -554,12 +672,12 @@
     </row>
     <row r="11" spans="4:10" x14ac:dyDescent="0.35">
       <c r="H11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="4:10" x14ac:dyDescent="0.35">
       <c r="F12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="4:10" x14ac:dyDescent="0.35">
@@ -591,40 +709,437 @@
         <v>1234567891</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G14" t="s">
         <v>20</v>
       </c>
       <c r="H14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" t="s">
         <v>21</v>
-      </c>
-      <c r="I14" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="15" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>1234567892</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G15" t="s">
         <v>20</v>
       </c>
       <c r="H15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA37C262-AE57-4CAF-9C6C-4E83C53F9532}">
+  <dimension ref="D1:J16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="54.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="4:10" ht="21" x14ac:dyDescent="0.5">
+      <c r="F1" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="4:10" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="E4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="E5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="E7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="E8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="E9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="E10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="H12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="F13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15">
+        <v>1234567891</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1234567892</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8427A7ED-89F9-4EA6-88EF-F00F70A8734F}">
+  <dimension ref="D1:J49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="4:10" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="4:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="E2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="E3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="E4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="E6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="E7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="E8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="E9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="F12" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14">
+        <v>1234567891</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>1234567892</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E19" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E21" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E44" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="F45" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E47" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="F48" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F49" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>